--- a/closing exchange rates.xlsx
+++ b/closing exchange rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F870B150-9CFE-4D59-BE68-BA4FDB0F9416}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B390C4B-B2F0-4E02-B8BB-742A72F400D5}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange rates" sheetId="2" r:id="rId1"/>
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ED5"/>
+  <dimension ref="A1:EC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,2008 +887,2008 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1">
+        <v>39814</v>
+      </c>
       <c r="C1" s="1">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="D1" s="1">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="E1" s="1">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="F1" s="1">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="G1" s="1">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="H1" s="1">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="I1" s="1">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="J1" s="1">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="K1" s="1">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="L1" s="1">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="M1" s="1">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="N1" s="1">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="O1" s="1">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="P1" s="1">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="Q1" s="1">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="R1" s="1">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="S1" s="1">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="T1" s="1">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="U1" s="1">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="V1" s="1">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="W1" s="1">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="X1" s="1">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="Y1" s="1">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="Z1" s="1">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="AA1" s="1">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="AB1" s="1">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="AC1" s="1">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="AD1" s="1">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="AE1" s="1">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="AF1" s="1">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="AG1" s="1">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="AH1" s="1">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="AI1" s="1">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="AJ1" s="1">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="AK1" s="1">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="AL1" s="1">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="AM1" s="1">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="AN1" s="1">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="AO1" s="1">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="AP1" s="1">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="AQ1" s="1">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="AR1" s="1">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="AS1" s="1">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="AT1" s="1">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="AU1" s="1">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="AV1" s="1">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="AW1" s="1">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="AX1" s="1">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="AY1" s="1">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="AZ1" s="1">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="BA1" s="1">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="BB1" s="1">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="BC1" s="1">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="BD1" s="1">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="BE1" s="1">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="BF1" s="1">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="BG1" s="1">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="BH1" s="1">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="BI1" s="1">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="BJ1" s="1">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="BK1" s="1">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="BL1" s="1">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="BM1" s="1">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="BN1" s="1">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="BO1" s="1">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="BP1" s="1">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="BQ1" s="1">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="BR1" s="1">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="BS1" s="1">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="BT1" s="1">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="BU1" s="1">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="BV1" s="1">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="BW1" s="1">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="BX1" s="1">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="BY1" s="1">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="BZ1" s="1">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="CA1" s="1">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="CB1" s="1">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="CC1" s="1">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="CD1" s="1">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="CE1" s="1">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="CF1" s="1">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="CG1" s="1">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="CH1" s="1">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="CI1" s="1">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="CJ1" s="1">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="CK1" s="1">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="CL1" s="1">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="CM1" s="1">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="CN1" s="1">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="CO1" s="1">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="CP1" s="1">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="CQ1" s="1">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="CR1" s="1">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="CS1" s="1">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="CT1" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="CU1" s="1">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="CV1" s="1">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="CW1" s="1">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="CX1" s="1">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="CY1" s="1">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="CZ1" s="1">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="DA1" s="1">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="DB1" s="1">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="DC1" s="1">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="DD1" s="1">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="DE1" s="1">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="DF1" s="1">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="DG1" s="1">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="DH1" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="DI1" s="1">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="DJ1" s="1">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="DK1" s="1">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="DL1" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="DM1" s="1">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="DN1" s="1">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="DO1" s="1">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="DP1" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="DQ1" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="DR1" s="1">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="DS1" s="1">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="DT1" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="DU1" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="DV1" s="1">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="DW1" s="1">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="DX1" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="DY1" s="1">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="DZ1" s="1">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="EA1" s="1">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="EB1" s="1">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="EC1" s="1">
-        <v>43770</v>
-      </c>
-      <c r="ED1" s="1">
         <v>43800</v>
       </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.2793000000000001</v>
+      </c>
       <c r="C2">
-        <v>1.2793000000000001</v>
+        <v>1.2694000000000001</v>
       </c>
       <c r="D2">
-        <v>1.2694000000000001</v>
+        <v>1.3282</v>
       </c>
       <c r="E2">
-        <v>1.3282</v>
+        <v>1.323</v>
       </c>
       <c r="F2">
-        <v>1.323</v>
+        <v>1.4135</v>
       </c>
       <c r="G2">
-        <v>1.4135</v>
+        <v>1.4041999999999999</v>
       </c>
       <c r="H2">
-        <v>1.4041999999999999</v>
+        <v>1.4253</v>
       </c>
       <c r="I2">
-        <v>1.4253</v>
+        <v>1.4321999999999999</v>
       </c>
       <c r="J2">
-        <v>1.4321999999999999</v>
+        <v>1.4632000000000001</v>
       </c>
       <c r="K2">
-        <v>1.4632000000000001</v>
+        <v>1.4713000000000001</v>
       </c>
       <c r="L2">
-        <v>1.4713000000000001</v>
+        <v>1.5016</v>
       </c>
       <c r="M2">
-        <v>1.5016</v>
+        <v>1.4318</v>
       </c>
       <c r="N2">
-        <v>1.4318</v>
+        <v>1.3867</v>
       </c>
       <c r="O2">
-        <v>1.3867</v>
+        <v>1.3613</v>
       </c>
       <c r="P2">
-        <v>1.3613</v>
+        <v>1.351</v>
       </c>
       <c r="Q2">
-        <v>1.351</v>
+        <v>1.3313999999999999</v>
       </c>
       <c r="R2">
-        <v>1.3313999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="S2">
-        <v>1.23</v>
+        <v>1.2229000000000001</v>
       </c>
       <c r="T2">
-        <v>1.2229000000000001</v>
+        <v>1.3053999999999999</v>
       </c>
       <c r="U2">
-        <v>1.3053999999999999</v>
+        <v>1.2684</v>
       </c>
       <c r="V2">
-        <v>1.2684</v>
+        <v>1.3632</v>
       </c>
       <c r="W2">
-        <v>1.3632</v>
+        <v>1.3908</v>
       </c>
       <c r="X2">
-        <v>1.3908</v>
+        <v>1.2998000000000001</v>
       </c>
       <c r="Y2">
-        <v>1.2998000000000001</v>
+        <v>1.3366</v>
       </c>
       <c r="Z2">
-        <v>1.3366</v>
+        <v>1.3693</v>
       </c>
       <c r="AA2">
-        <v>1.3693</v>
+        <v>1.3801000000000001</v>
       </c>
       <c r="AB2">
-        <v>1.3801000000000001</v>
+        <v>1.4197</v>
       </c>
       <c r="AC2">
-        <v>1.4197</v>
+        <v>1.4825999999999999</v>
       </c>
       <c r="AD2">
-        <v>1.4825999999999999</v>
+        <v>1.4386000000000001</v>
       </c>
       <c r="AE2">
-        <v>1.4386000000000001</v>
+        <v>1.4514</v>
       </c>
       <c r="AF2">
-        <v>1.4514</v>
+        <v>1.4379</v>
       </c>
       <c r="AG2">
         <v>1.4379</v>
       </c>
       <c r="AH2">
-        <v>1.4379</v>
+        <v>1.3394999999999999</v>
       </c>
       <c r="AI2">
-        <v>1.3394999999999999</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1.3839999999999999</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="AK2">
-        <v>1.3440000000000001</v>
+        <v>1.2941</v>
       </c>
       <c r="AL2">
-        <v>1.2941</v>
+        <v>1.3083</v>
       </c>
       <c r="AM2">
-        <v>1.3083</v>
+        <v>1.3322000000000001</v>
       </c>
       <c r="AN2">
-        <v>1.3322000000000001</v>
+        <v>1.3335999999999999</v>
       </c>
       <c r="AO2">
-        <v>1.3335999999999999</v>
+        <v>1.3236000000000001</v>
       </c>
       <c r="AP2">
-        <v>1.3236000000000001</v>
+        <v>1.2375</v>
       </c>
       <c r="AQ2">
-        <v>1.2375</v>
+        <v>1.2654000000000001</v>
       </c>
       <c r="AR2">
-        <v>1.2654000000000001</v>
+        <v>1.2307999999999999</v>
       </c>
       <c r="AS2">
-        <v>1.2307999999999999</v>
+        <v>1.2578</v>
       </c>
       <c r="AT2">
-        <v>1.2578</v>
+        <v>1.2844</v>
       </c>
       <c r="AU2">
-        <v>1.2844</v>
+        <v>1.292</v>
       </c>
       <c r="AV2">
-        <v>1.292</v>
+        <v>1.3006</v>
       </c>
       <c r="AW2">
-        <v>1.3006</v>
+        <v>1.3188</v>
       </c>
       <c r="AX2">
-        <v>1.3188</v>
+        <v>1.3576999999999999</v>
       </c>
       <c r="AY2">
-        <v>1.3576999999999999</v>
+        <v>1.3064</v>
       </c>
       <c r="AZ2">
-        <v>1.3064</v>
+        <v>1.2813000000000001</v>
       </c>
       <c r="BA2">
-        <v>1.2813000000000001</v>
+        <v>1.3167</v>
       </c>
       <c r="BB2">
-        <v>1.3167</v>
+        <v>1.2997000000000001</v>
       </c>
       <c r="BC2">
-        <v>1.2997000000000001</v>
+        <v>1.3015000000000001</v>
       </c>
       <c r="BD2">
-        <v>1.3015000000000001</v>
+        <v>1.3301000000000001</v>
       </c>
       <c r="BE2">
-        <v>1.3301000000000001</v>
+        <v>1.3216000000000001</v>
       </c>
       <c r="BF2">
-        <v>1.3216000000000001</v>
+        <v>1.3519000000000001</v>
       </c>
       <c r="BG2">
-        <v>1.3519000000000001</v>
+        <v>1.3585</v>
       </c>
       <c r="BH2">
-        <v>1.3585</v>
+        <v>1.3587</v>
       </c>
       <c r="BI2">
-        <v>1.3587</v>
+        <v>1.3774</v>
       </c>
       <c r="BJ2">
-        <v>1.3774</v>
+        <v>1.3487</v>
       </c>
       <c r="BK2">
-        <v>1.3487</v>
+        <v>1.3806</v>
       </c>
       <c r="BL2">
-        <v>1.3806</v>
+        <v>1.3781000000000001</v>
       </c>
       <c r="BM2">
-        <v>1.3781000000000001</v>
+        <v>1.387</v>
       </c>
       <c r="BN2">
-        <v>1.387</v>
+        <v>1.3631</v>
       </c>
       <c r="BO2">
-        <v>1.3631</v>
+        <v>1.3693</v>
       </c>
       <c r="BP2">
-        <v>1.3693</v>
+        <v>1.3388</v>
       </c>
       <c r="BQ2">
-        <v>1.3388</v>
+        <v>1.3139000000000001</v>
       </c>
       <c r="BR2">
-        <v>1.3139000000000001</v>
+        <v>1.2628999999999999</v>
       </c>
       <c r="BS2">
-        <v>1.2628999999999999</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="BT2">
-        <v>1.2529999999999999</v>
+        <v>1.2441</v>
       </c>
       <c r="BU2">
-        <v>1.2441</v>
+        <v>1.2098</v>
       </c>
       <c r="BV2">
-        <v>1.2098</v>
+        <v>1.1303000000000001</v>
       </c>
       <c r="BW2">
-        <v>1.1303000000000001</v>
+        <v>1.1187</v>
       </c>
       <c r="BX2">
-        <v>1.1187</v>
+        <v>1.0747</v>
       </c>
       <c r="BY2">
-        <v>1.0747</v>
+        <v>1.123</v>
       </c>
       <c r="BZ2">
-        <v>1.123</v>
+        <v>1.0981000000000001</v>
       </c>
       <c r="CA2">
-        <v>1.0981000000000001</v>
+        <v>1.1144000000000001</v>
       </c>
       <c r="CB2">
-        <v>1.1144000000000001</v>
+        <v>1.0986</v>
       </c>
       <c r="CC2">
-        <v>1.0986</v>
+        <v>1.1229</v>
       </c>
       <c r="CD2">
-        <v>1.1229</v>
+        <v>1.1165</v>
       </c>
       <c r="CE2">
-        <v>1.1165</v>
+        <v>1.0995999999999999</v>
       </c>
       <c r="CF2">
-        <v>1.0995999999999999</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="CG2">
-        <v>1.0569999999999999</v>
+        <v>1.0864</v>
       </c>
       <c r="CH2">
-        <v>1.0864</v>
+        <v>1.0831</v>
       </c>
       <c r="CI2">
-        <v>1.0831</v>
+        <v>1.0886</v>
       </c>
       <c r="CJ2">
-        <v>1.0886</v>
+        <v>1.1384000000000001</v>
       </c>
       <c r="CK2">
-        <v>1.1384000000000001</v>
+        <v>1.1446000000000001</v>
       </c>
       <c r="CL2">
-        <v>1.1446000000000001</v>
+        <v>1.1133999999999999</v>
       </c>
       <c r="CM2">
-        <v>1.1133999999999999</v>
+        <v>1.1087</v>
       </c>
       <c r="CN2">
-        <v>1.1087</v>
+        <v>1.1184000000000001</v>
       </c>
       <c r="CO2">
-        <v>1.1184000000000001</v>
+        <v>1.1158999999999999</v>
       </c>
       <c r="CP2">
-        <v>1.1158999999999999</v>
+        <v>1.1233</v>
       </c>
       <c r="CQ2">
-        <v>1.1233</v>
+        <v>1.0975999999999999</v>
       </c>
       <c r="CR2">
-        <v>1.0975999999999999</v>
+        <v>1.0599000000000001</v>
       </c>
       <c r="CS2">
-        <v>1.0599000000000001</v>
+        <v>1.0531999999999999</v>
       </c>
       <c r="CT2">
-        <v>1.0531999999999999</v>
+        <v>1.0794999999999999</v>
       </c>
       <c r="CU2">
-        <v>1.0794999999999999</v>
+        <v>1.0590999999999999</v>
       </c>
       <c r="CV2">
-        <v>1.0590999999999999</v>
+        <v>1.0672999999999999</v>
       </c>
       <c r="CW2">
-        <v>1.0672999999999999</v>
+        <v>1.0899000000000001</v>
       </c>
       <c r="CX2">
-        <v>1.0899000000000001</v>
+        <v>1.1241000000000001</v>
       </c>
       <c r="CY2">
-        <v>1.1241000000000001</v>
+        <v>1.1417999999999999</v>
       </c>
       <c r="CZ2">
-        <v>1.1417999999999999</v>
+        <v>1.1829000000000001</v>
       </c>
       <c r="DA2">
-        <v>1.1829000000000001</v>
+        <v>1.1900999999999999</v>
       </c>
       <c r="DB2">
-        <v>1.1900999999999999</v>
+        <v>1.1817</v>
       </c>
       <c r="DC2">
-        <v>1.1817</v>
+        <v>1.1652</v>
       </c>
       <c r="DD2">
-        <v>1.1652</v>
+        <v>1.1902999999999999</v>
       </c>
       <c r="DE2">
-        <v>1.1902999999999999</v>
+        <v>1.2013</v>
       </c>
       <c r="DF2">
-        <v>1.2013</v>
+        <v>1.2416</v>
       </c>
       <c r="DG2">
-        <v>1.2416</v>
+        <v>1.2199</v>
       </c>
       <c r="DH2">
-        <v>1.2199</v>
+        <v>1.2323</v>
       </c>
       <c r="DI2">
-        <v>1.2323</v>
+        <v>1.2081999999999999</v>
       </c>
       <c r="DJ2">
-        <v>1.2081999999999999</v>
+        <v>1.1685000000000001</v>
       </c>
       <c r="DK2">
-        <v>1.1685000000000001</v>
+        <v>1.1672</v>
       </c>
       <c r="DL2">
-        <v>1.1672</v>
+        <v>1.1698</v>
       </c>
       <c r="DM2">
-        <v>1.1698</v>
+        <v>1.1603000000000001</v>
       </c>
       <c r="DN2">
-        <v>1.1603000000000001</v>
+        <v>1.1614</v>
       </c>
       <c r="DO2">
-        <v>1.1614</v>
+        <v>1.1314</v>
       </c>
       <c r="DP2">
-        <v>1.1314</v>
+        <v>1.1311</v>
       </c>
       <c r="DQ2">
-        <v>1.1311</v>
+        <v>1.1445000000000001</v>
       </c>
       <c r="DR2">
-        <v>1.1445000000000001</v>
+        <v>1.1443000000000001</v>
       </c>
       <c r="DS2">
-        <v>1.1443000000000001</v>
+        <v>1.1374</v>
       </c>
       <c r="DT2">
-        <v>1.1374</v>
+        <v>1.1222000000000001</v>
       </c>
       <c r="DU2">
-        <v>1.1222000000000001</v>
+        <v>1.1205000000000001</v>
       </c>
       <c r="DV2">
-        <v>1.1205000000000001</v>
+        <v>1.1172</v>
       </c>
       <c r="DW2">
-        <v>1.1172</v>
+        <v>1.1372</v>
       </c>
       <c r="DX2">
-        <v>1.1372</v>
+        <v>1.1089</v>
       </c>
       <c r="DY2">
-        <v>1.1089</v>
+        <v>1.0974999999999999</v>
       </c>
       <c r="DZ2">
-        <v>1.0974999999999999</v>
+        <v>1.0901000000000001</v>
       </c>
       <c r="EA2">
-        <v>1.0901000000000001</v>
+        <v>1.1143000000000001</v>
       </c>
       <c r="EB2">
-        <v>1.1143000000000001</v>
+        <v>1.1014999999999999</v>
       </c>
       <c r="EC2">
-        <v>1.1014999999999999</v>
-      </c>
-      <c r="ED2">
         <v>1.1223000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>89.85</v>
+      </c>
       <c r="C3">
-        <v>89.85</v>
+        <v>97.79</v>
       </c>
       <c r="D3">
-        <v>97.79</v>
+        <v>97.08</v>
       </c>
       <c r="E3">
-        <v>97.08</v>
+        <v>98.63</v>
       </c>
       <c r="F3">
-        <v>98.63</v>
+        <v>95.28</v>
       </c>
       <c r="G3">
-        <v>95.28</v>
+        <v>96.35</v>
       </c>
       <c r="H3">
-        <v>96.35</v>
+        <v>94.78</v>
       </c>
       <c r="I3">
-        <v>94.78</v>
+        <v>92.99</v>
       </c>
       <c r="J3">
-        <v>92.99</v>
+        <v>89.77</v>
       </c>
       <c r="K3">
-        <v>89.77</v>
+        <v>90</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>86.43</v>
       </c>
       <c r="M3">
+        <v>93.08</v>
+      </c>
+      <c r="N3">
+        <v>90.27</v>
+      </c>
+      <c r="O3">
+        <v>88.91</v>
+      </c>
+      <c r="P3">
+        <v>93.5</v>
+      </c>
+      <c r="Q3">
+        <v>93.92</v>
+      </c>
+      <c r="R3">
+        <v>91.08</v>
+      </c>
+      <c r="S3">
+        <v>88.36</v>
+      </c>
+      <c r="T3">
         <v>86.43</v>
       </c>
-      <c r="N3">
-        <v>93.08</v>
-      </c>
-      <c r="O3">
-        <v>90.27</v>
-      </c>
-      <c r="P3">
-        <v>88.91</v>
-      </c>
-      <c r="Q3">
-        <v>93.5</v>
-      </c>
-      <c r="R3">
-        <v>93.92</v>
-      </c>
-      <c r="S3">
-        <v>91.08</v>
-      </c>
-      <c r="T3">
-        <v>88.36</v>
-      </c>
       <c r="U3">
-        <v>86.43</v>
+        <v>83.96</v>
       </c>
       <c r="V3">
-        <v>83.96</v>
+        <v>83.51</v>
       </c>
       <c r="W3">
-        <v>83.51</v>
+        <v>80.47</v>
       </c>
       <c r="X3">
-        <v>80.47</v>
+        <v>83.66</v>
       </c>
       <c r="Y3">
-        <v>83.66</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="Z3">
-        <v>81.180000000000007</v>
+        <v>82.03</v>
       </c>
       <c r="AA3">
-        <v>82.03</v>
+        <v>81.75</v>
       </c>
       <c r="AB3">
-        <v>81.75</v>
+        <v>83.04</v>
       </c>
       <c r="AC3">
-        <v>83.04</v>
+        <v>81.05</v>
       </c>
       <c r="AD3">
-        <v>81.05</v>
+        <v>81.44</v>
       </c>
       <c r="AE3">
-        <v>81.44</v>
+        <v>80.52</v>
       </c>
       <c r="AF3">
-        <v>80.52</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="AG3">
-        <v>76.959999999999994</v>
+        <v>76.56</v>
       </c>
       <c r="AH3">
-        <v>76.56</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="AI3">
-        <v>77.069999999999993</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="AJ3">
-        <v>78.150000000000006</v>
+        <v>77.55</v>
       </c>
       <c r="AK3">
-        <v>77.55</v>
+        <v>76.95</v>
       </c>
       <c r="AL3">
-        <v>76.95</v>
+        <v>76.19</v>
       </c>
       <c r="AM3">
-        <v>76.19</v>
+        <v>81.260000000000005</v>
       </c>
       <c r="AN3">
-        <v>81.260000000000005</v>
+        <v>82.736999999999995</v>
       </c>
       <c r="AO3">
-        <v>82.736999999999995</v>
+        <v>79.81</v>
       </c>
       <c r="AP3">
-        <v>79.81</v>
+        <v>78.38</v>
       </c>
       <c r="AQ3">
-        <v>78.38</v>
+        <v>79.915999999999997</v>
       </c>
       <c r="AR3">
-        <v>79.915999999999997</v>
+        <v>78.117000000000004</v>
       </c>
       <c r="AS3">
-        <v>78.117000000000004</v>
+        <v>78.283000000000001</v>
       </c>
       <c r="AT3">
-        <v>78.283000000000001</v>
+        <v>77.97</v>
       </c>
       <c r="AU3">
-        <v>77.97</v>
+        <v>79.8</v>
       </c>
       <c r="AV3">
-        <v>79.8</v>
+        <v>82.421999999999997</v>
       </c>
       <c r="AW3">
-        <v>82.421999999999997</v>
+        <v>86.756</v>
       </c>
       <c r="AX3">
-        <v>86.756</v>
+        <v>91.49</v>
       </c>
       <c r="AY3">
-        <v>91.49</v>
+        <v>92.66</v>
       </c>
       <c r="AZ3">
-        <v>92.66</v>
+        <v>94.197000000000003</v>
       </c>
       <c r="BA3">
-        <v>94.197000000000003</v>
+        <v>97.52</v>
       </c>
       <c r="BB3">
-        <v>97.52</v>
+        <v>100.48</v>
       </c>
       <c r="BC3">
-        <v>100.48</v>
+        <v>99.18</v>
       </c>
       <c r="BD3">
-        <v>99.18</v>
+        <v>97.92</v>
       </c>
       <c r="BE3">
-        <v>97.92</v>
+        <v>98.153999999999996</v>
       </c>
       <c r="BF3">
-        <v>98.153999999999996</v>
+        <v>98.203000000000003</v>
       </c>
       <c r="BG3">
-        <v>98.203000000000003</v>
+        <v>98.32</v>
       </c>
       <c r="BH3">
-        <v>98.32</v>
+        <v>102.434</v>
       </c>
       <c r="BI3">
-        <v>102.434</v>
+        <v>105.25</v>
       </c>
       <c r="BJ3">
-        <v>105.25</v>
+        <v>102.13</v>
       </c>
       <c r="BK3">
-        <v>102.13</v>
+        <v>101.773</v>
       </c>
       <c r="BL3">
-        <v>101.773</v>
+        <v>103.214</v>
       </c>
       <c r="BM3">
-        <v>103.214</v>
+        <v>102.16</v>
       </c>
       <c r="BN3">
-        <v>102.16</v>
+        <v>101.80200000000001</v>
       </c>
       <c r="BO3">
-        <v>101.80200000000001</v>
+        <v>101.318</v>
       </c>
       <c r="BP3">
-        <v>101.318</v>
+        <v>102.85</v>
       </c>
       <c r="BQ3">
-        <v>102.85</v>
+        <v>104.03700000000001</v>
       </c>
       <c r="BR3">
-        <v>104.03700000000001</v>
+        <v>109.685</v>
       </c>
       <c r="BS3">
-        <v>109.685</v>
+        <v>112.258</v>
       </c>
       <c r="BT3">
-        <v>112.258</v>
+        <v>118.66200000000001</v>
       </c>
       <c r="BU3">
-        <v>118.66200000000001</v>
+        <v>119.8</v>
       </c>
       <c r="BV3">
-        <v>119.8</v>
+        <v>117.425</v>
       </c>
       <c r="BW3">
-        <v>117.425</v>
+        <v>119.633</v>
       </c>
       <c r="BX3">
-        <v>119.633</v>
+        <v>119.916</v>
       </c>
       <c r="BY3">
-        <v>119.916</v>
+        <v>119.417</v>
       </c>
       <c r="BZ3">
-        <v>119.417</v>
+        <v>124.086</v>
       </c>
       <c r="CA3">
-        <v>124.086</v>
+        <v>122.339</v>
       </c>
       <c r="CB3">
-        <v>122.339</v>
+        <v>123.88</v>
       </c>
       <c r="CC3">
-        <v>123.88</v>
+        <v>121.18300000000001</v>
       </c>
       <c r="CD3">
-        <v>121.18300000000001</v>
+        <v>119.946</v>
       </c>
       <c r="CE3">
-        <v>119.946</v>
+        <v>120.67700000000001</v>
       </c>
       <c r="CF3">
-        <v>120.67700000000001</v>
+        <v>123.05800000000001</v>
       </c>
       <c r="CG3">
-        <v>123.05800000000001</v>
+        <v>120.17</v>
       </c>
       <c r="CH3">
-        <v>120.17</v>
+        <v>121.092</v>
       </c>
       <c r="CI3">
-        <v>121.092</v>
+        <v>112.80500000000001</v>
       </c>
       <c r="CJ3">
-        <v>112.80500000000001</v>
+        <v>112.518</v>
       </c>
       <c r="CK3">
-        <v>112.518</v>
+        <v>106.419</v>
       </c>
       <c r="CL3">
-        <v>106.419</v>
+        <v>110.614</v>
       </c>
       <c r="CM3">
-        <v>110.614</v>
+        <v>103.238</v>
       </c>
       <c r="CN3">
-        <v>103.238</v>
+        <v>102.01</v>
       </c>
       <c r="CO3">
-        <v>102.01</v>
+        <v>103.429</v>
       </c>
       <c r="CP3">
-        <v>103.429</v>
+        <v>101.38</v>
       </c>
       <c r="CQ3">
-        <v>101.38</v>
+        <v>104.845</v>
       </c>
       <c r="CR3">
-        <v>104.845</v>
+        <v>114.29900000000001</v>
       </c>
       <c r="CS3">
-        <v>114.29900000000001</v>
+        <v>116.74</v>
       </c>
       <c r="CT3">
-        <v>116.74</v>
+        <v>112.875</v>
       </c>
       <c r="CU3">
-        <v>112.875</v>
+        <v>112.331</v>
       </c>
       <c r="CV3">
-        <v>112.331</v>
+        <v>111.387</v>
       </c>
       <c r="CW3">
-        <v>111.387</v>
+        <v>111.423</v>
       </c>
       <c r="CX3">
-        <v>111.423</v>
+        <v>110.655</v>
       </c>
       <c r="CY3">
-        <v>110.655</v>
+        <v>112.456</v>
       </c>
       <c r="CZ3">
-        <v>112.456</v>
+        <v>110.22</v>
       </c>
       <c r="DA3">
-        <v>110.22</v>
+        <v>109.89</v>
       </c>
       <c r="DB3">
-        <v>109.89</v>
+        <v>112.53</v>
       </c>
       <c r="DC3">
-        <v>112.53</v>
+        <v>113.68</v>
       </c>
       <c r="DD3">
-        <v>113.68</v>
+        <v>112.46</v>
       </c>
       <c r="DE3">
-        <v>112.46</v>
+        <v>112.62</v>
       </c>
       <c r="DF3">
-        <v>112.62</v>
+        <v>109.15</v>
       </c>
       <c r="DG3">
-        <v>109.15</v>
+        <v>106.65</v>
       </c>
       <c r="DH3">
-        <v>106.65</v>
+        <v>106.21</v>
       </c>
       <c r="DI3">
-        <v>106.21</v>
+        <v>108.42</v>
       </c>
       <c r="DJ3">
-        <v>108.42</v>
+        <v>108.67</v>
       </c>
       <c r="DK3">
-        <v>108.67</v>
+        <v>110.86</v>
       </c>
       <c r="DL3">
-        <v>110.86</v>
+        <v>111.82</v>
       </c>
       <c r="DM3">
-        <v>111.82</v>
+        <v>111</v>
       </c>
       <c r="DN3">
-        <v>111</v>
+        <v>113.58</v>
       </c>
       <c r="DO3">
-        <v>113.58</v>
+        <v>113.02</v>
       </c>
       <c r="DP3">
-        <v>113.02</v>
+        <v>113.61</v>
       </c>
       <c r="DQ3">
-        <v>113.61</v>
+        <v>109.59</v>
       </c>
       <c r="DR3">
-        <v>109.59</v>
+        <v>108.85</v>
       </c>
       <c r="DS3">
-        <v>108.85</v>
+        <v>111.42</v>
       </c>
       <c r="DT3">
-        <v>111.42</v>
+        <v>110.79</v>
       </c>
       <c r="DU3">
-        <v>110.79</v>
+        <v>111.38</v>
       </c>
       <c r="DV3">
-        <v>111.38</v>
+        <v>108.39</v>
       </c>
       <c r="DW3">
-        <v>108.39</v>
+        <v>107.76</v>
       </c>
       <c r="DX3">
-        <v>107.76</v>
+        <v>108.72</v>
       </c>
       <c r="DY3">
-        <v>108.72</v>
+        <v>106.27</v>
       </c>
       <c r="DZ3">
-        <v>106.27</v>
+        <v>108.08</v>
       </c>
       <c r="EA3">
-        <v>108.08</v>
+        <v>107.97</v>
       </c>
       <c r="EB3">
-        <v>107.97</v>
+        <v>109.45</v>
       </c>
       <c r="EC3">
-        <v>109.45</v>
-      </c>
-      <c r="ED3">
         <v>108.62</v>
       </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1.4455</v>
+      </c>
       <c r="C4">
-        <v>1.4455</v>
+        <v>1.4313</v>
       </c>
       <c r="D4">
-        <v>1.4313</v>
+        <v>1.4347000000000001</v>
       </c>
       <c r="E4">
-        <v>1.4347000000000001</v>
+        <v>1.4784999999999999</v>
       </c>
       <c r="F4">
-        <v>1.4784999999999999</v>
+        <v>1.6132</v>
       </c>
       <c r="G4">
-        <v>1.6132</v>
+        <v>1.6467000000000001</v>
       </c>
       <c r="H4">
-        <v>1.6467000000000001</v>
+        <v>1.6698</v>
       </c>
       <c r="I4">
-        <v>1.6698</v>
+        <v>1.6266</v>
       </c>
       <c r="J4">
-        <v>1.6266</v>
+        <v>1.5983000000000001</v>
       </c>
       <c r="K4">
-        <v>1.5983000000000001</v>
+        <v>1.6415</v>
       </c>
       <c r="L4">
-        <v>1.6415</v>
+        <v>1.6448</v>
       </c>
       <c r="M4">
-        <v>1.6448</v>
+        <v>1.6166</v>
       </c>
       <c r="N4">
-        <v>1.6166</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>1.6</v>
+        <v>1.5246</v>
       </c>
       <c r="P4">
-        <v>1.5246</v>
+        <v>1.5177</v>
       </c>
       <c r="Q4">
-        <v>1.5177</v>
+        <v>1.5289999999999999</v>
       </c>
       <c r="R4">
-        <v>1.5289999999999999</v>
+        <v>1.4538</v>
       </c>
       <c r="S4">
-        <v>1.4538</v>
+        <v>1.4938</v>
       </c>
       <c r="T4">
-        <v>1.4938</v>
+        <v>1.5702</v>
       </c>
       <c r="U4">
-        <v>1.5702</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="V4">
-        <v>1.5349999999999999</v>
+        <v>1.5707</v>
       </c>
       <c r="W4">
-        <v>1.5707</v>
+        <v>1.6032</v>
       </c>
       <c r="X4">
-        <v>1.6032</v>
+        <v>1.5568</v>
       </c>
       <c r="Y4">
-        <v>1.5568</v>
+        <v>1.5602</v>
       </c>
       <c r="Z4">
-        <v>1.5602</v>
+        <v>1.6015999999999999</v>
       </c>
       <c r="AA4">
-        <v>1.6015999999999999</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="AB4">
-        <v>1.6259999999999999</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="AC4">
-        <v>1.6060000000000001</v>
+        <v>1.6712</v>
       </c>
       <c r="AD4">
-        <v>1.6712</v>
+        <v>1.645</v>
       </c>
       <c r="AE4">
-        <v>1.645</v>
+        <v>1.6057999999999999</v>
       </c>
       <c r="AF4">
-        <v>1.6057999999999999</v>
+        <v>1.6427</v>
       </c>
       <c r="AG4">
-        <v>1.6427</v>
+        <v>1.6246</v>
       </c>
       <c r="AH4">
-        <v>1.6246</v>
+        <v>1.5590999999999999</v>
       </c>
       <c r="AI4">
-        <v>1.5590999999999999</v>
+        <v>1.6081000000000001</v>
       </c>
       <c r="AJ4">
-        <v>1.6081000000000001</v>
+        <v>1.5701000000000001</v>
       </c>
       <c r="AK4">
-        <v>1.5701000000000001</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="AL4">
-        <v>1.5529999999999999</v>
+        <v>1.5759000000000001</v>
       </c>
       <c r="AM4">
-        <v>1.5759000000000001</v>
+        <v>1.5916999999999999</v>
       </c>
       <c r="AN4">
-        <v>1.5916999999999999</v>
+        <v>1.5995999999999999</v>
       </c>
       <c r="AO4">
-        <v>1.5995999999999999</v>
+        <v>1.623</v>
       </c>
       <c r="AP4">
-        <v>1.623</v>
+        <v>1.5422</v>
       </c>
       <c r="AQ4">
-        <v>1.5422</v>
+        <v>1.5670999999999999</v>
       </c>
       <c r="AR4">
-        <v>1.5670999999999999</v>
+        <v>1.5679000000000001</v>
       </c>
       <c r="AS4">
-        <v>1.5679000000000001</v>
+        <v>1.5881000000000001</v>
       </c>
       <c r="AT4">
-        <v>1.5881000000000001</v>
+        <v>1.6126</v>
       </c>
       <c r="AU4">
-        <v>1.6126</v>
+        <v>1.6029</v>
       </c>
       <c r="AV4">
-        <v>1.6029</v>
+        <v>1.6024</v>
       </c>
       <c r="AW4">
-        <v>1.6024</v>
+        <v>1.6234</v>
       </c>
       <c r="AX4">
-        <v>1.6234</v>
+        <v>1.5858000000000001</v>
       </c>
       <c r="AY4">
-        <v>1.5858000000000001</v>
+        <v>1.5158</v>
       </c>
       <c r="AZ4">
-        <v>1.5158</v>
+        <v>1.5188999999999999</v>
       </c>
       <c r="BA4">
-        <v>1.5188999999999999</v>
+        <v>1.5532999999999999</v>
       </c>
       <c r="BB4">
-        <v>1.5532999999999999</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="BC4">
-        <v>1.5193000000000001</v>
+        <v>1.5207999999999999</v>
       </c>
       <c r="BD4">
-        <v>1.5207999999999999</v>
+        <v>1.5210999999999999</v>
       </c>
       <c r="BE4">
-        <v>1.5210999999999999</v>
+        <v>1.5492999999999999</v>
       </c>
       <c r="BF4">
-        <v>1.5492999999999999</v>
+        <v>1.6183000000000001</v>
       </c>
       <c r="BG4">
-        <v>1.6183000000000001</v>
+        <v>1.6035999999999999</v>
       </c>
       <c r="BH4">
-        <v>1.6035999999999999</v>
+        <v>1.6365000000000001</v>
       </c>
       <c r="BI4">
-        <v>1.6365000000000001</v>
+        <v>1.6569</v>
       </c>
       <c r="BJ4">
-        <v>1.6569</v>
+        <v>1.6434</v>
       </c>
       <c r="BK4">
-        <v>1.6434</v>
+        <v>1.6747000000000001</v>
       </c>
       <c r="BL4">
-        <v>1.6747000000000001</v>
+        <v>1.6673</v>
       </c>
       <c r="BM4">
-        <v>1.6673</v>
+        <v>1.6879</v>
       </c>
       <c r="BN4">
-        <v>1.6879</v>
+        <v>1.6760999999999999</v>
       </c>
       <c r="BO4">
-        <v>1.6760999999999999</v>
+        <v>1.7114</v>
       </c>
       <c r="BP4">
-        <v>1.7114</v>
+        <v>1.6882999999999999</v>
       </c>
       <c r="BQ4">
-        <v>1.6882999999999999</v>
+        <v>1.6600999999999999</v>
       </c>
       <c r="BR4">
-        <v>1.6600999999999999</v>
+        <v>1.6208</v>
       </c>
       <c r="BS4">
-        <v>1.6208</v>
+        <v>1.5994999999999999</v>
       </c>
       <c r="BT4">
-        <v>1.5994999999999999</v>
+        <v>1.5626</v>
       </c>
       <c r="BU4">
-        <v>1.5626</v>
+        <v>1.5583</v>
       </c>
       <c r="BV4">
-        <v>1.5583</v>
+        <v>1.5059</v>
       </c>
       <c r="BW4">
-        <v>1.5059</v>
+        <v>1.5432999999999999</v>
       </c>
       <c r="BX4">
-        <v>1.5432999999999999</v>
+        <v>1.4842</v>
       </c>
       <c r="BY4">
-        <v>1.4842</v>
+        <v>1.5344</v>
       </c>
       <c r="BZ4">
-        <v>1.5344</v>
+        <v>1.5286999999999999</v>
       </c>
       <c r="CA4">
-        <v>1.5286999999999999</v>
+        <v>1.5718000000000001</v>
       </c>
       <c r="CB4">
-        <v>1.5718000000000001</v>
+        <v>1.5622</v>
       </c>
       <c r="CC4">
-        <v>1.5622</v>
+        <v>1.5350999999999999</v>
       </c>
       <c r="CD4">
-        <v>1.5350999999999999</v>
+        <v>1.5122</v>
       </c>
       <c r="CE4">
-        <v>1.5122</v>
+        <v>1.5418000000000001</v>
       </c>
       <c r="CF4">
-        <v>1.5418000000000001</v>
+        <v>1.5057</v>
       </c>
       <c r="CG4">
-        <v>1.5057</v>
+        <v>1.4738</v>
       </c>
       <c r="CH4">
-        <v>1.4738</v>
+        <v>1.4244000000000001</v>
       </c>
       <c r="CI4">
-        <v>1.4244000000000001</v>
+        <v>1.3927</v>
       </c>
       <c r="CJ4">
-        <v>1.3927</v>
+        <v>1.4368000000000001</v>
       </c>
       <c r="CK4">
-        <v>1.4368000000000001</v>
+        <v>1.4612000000000001</v>
       </c>
       <c r="CL4">
-        <v>1.4612000000000001</v>
+        <v>1.4491000000000001</v>
       </c>
       <c r="CM4">
-        <v>1.4491000000000001</v>
+        <v>1.3284</v>
       </c>
       <c r="CN4">
-        <v>1.3284</v>
+        <v>1.3230999999999999</v>
       </c>
       <c r="CO4">
-        <v>1.3230999999999999</v>
+        <v>1.3128</v>
       </c>
       <c r="CP4">
-        <v>1.3128</v>
+        <v>1.2970999999999999</v>
       </c>
       <c r="CQ4">
-        <v>1.2970999999999999</v>
+        <v>1.2234</v>
       </c>
       <c r="CR4">
-        <v>1.2234</v>
+        <v>1.2504999999999999</v>
       </c>
       <c r="CS4">
-        <v>1.2504999999999999</v>
+        <v>1.2323999999999999</v>
       </c>
       <c r="CT4">
-        <v>1.2323999999999999</v>
+        <v>1.2568999999999999</v>
       </c>
       <c r="CU4">
-        <v>1.2568999999999999</v>
+        <v>1.2403</v>
       </c>
       <c r="CV4">
-        <v>1.2403</v>
+        <v>1.2524</v>
       </c>
       <c r="CW4">
-        <v>1.2524</v>
+        <v>1.2954000000000001</v>
       </c>
       <c r="CX4">
-        <v>1.2954000000000001</v>
+        <v>1.2884</v>
       </c>
       <c r="CY4">
-        <v>1.2884</v>
+        <v>1.3017000000000001</v>
       </c>
       <c r="CZ4">
-        <v>1.3017000000000001</v>
+        <v>1.3194999999999999</v>
       </c>
       <c r="DA4">
-        <v>1.3194999999999999</v>
+        <v>1.2926</v>
       </c>
       <c r="DB4">
-        <v>1.2926</v>
+        <v>1.3398000000000001</v>
       </c>
       <c r="DC4">
-        <v>1.3398000000000001</v>
+        <v>1.3280000000000001</v>
       </c>
       <c r="DD4">
-        <v>1.3280000000000001</v>
+        <v>1.3526</v>
       </c>
       <c r="DE4">
-        <v>1.3526</v>
+        <v>1.3522000000000001</v>
       </c>
       <c r="DF4">
-        <v>1.3522000000000001</v>
+        <v>1.4202999999999999</v>
       </c>
       <c r="DG4">
-        <v>1.4202999999999999</v>
+        <v>1.3762000000000001</v>
       </c>
       <c r="DH4">
-        <v>1.3762000000000001</v>
+        <v>1.4046000000000001</v>
       </c>
       <c r="DI4">
-        <v>1.4046000000000001</v>
+        <v>1.3752</v>
       </c>
       <c r="DJ4">
-        <v>1.3752</v>
+        <v>1.325</v>
       </c>
       <c r="DK4">
-        <v>1.325</v>
+        <v>1.3189</v>
       </c>
       <c r="DL4">
-        <v>1.3189</v>
+        <v>1.3125</v>
       </c>
       <c r="DM4">
-        <v>1.3125</v>
+        <v>1.296</v>
       </c>
       <c r="DN4">
-        <v>1.296</v>
+        <v>1.3042</v>
       </c>
       <c r="DO4">
-        <v>1.3042</v>
+        <v>1.2765</v>
       </c>
       <c r="DP4">
-        <v>1.2765</v>
+        <v>1.2744</v>
       </c>
       <c r="DQ4">
-        <v>1.2744</v>
+        <v>1.274</v>
       </c>
       <c r="DR4">
-        <v>1.274</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="DS4">
-        <v>1.3109999999999999</v>
+        <v>1.3262</v>
       </c>
       <c r="DT4">
-        <v>1.3262</v>
+        <v>1.3012999999999999</v>
       </c>
       <c r="DU4">
-        <v>1.3012999999999999</v>
+        <v>1.3039000000000001</v>
       </c>
       <c r="DV4">
-        <v>1.3039000000000001</v>
+        <v>1.2637</v>
       </c>
       <c r="DW4">
-        <v>1.2637</v>
+        <v>1.2698</v>
       </c>
       <c r="DX4">
-        <v>1.2698</v>
+        <v>1.2171000000000001</v>
       </c>
       <c r="DY4">
-        <v>1.2171000000000001</v>
+        <v>1.2146999999999999</v>
       </c>
       <c r="DZ4">
-        <v>1.2146999999999999</v>
+        <v>1.2291000000000001</v>
       </c>
       <c r="EA4">
-        <v>1.2291000000000001</v>
+        <v>1.2935000000000001</v>
       </c>
       <c r="EB4">
-        <v>1.2935000000000001</v>
+        <v>1.2930999999999999</v>
       </c>
       <c r="EC4">
-        <v>1.2930999999999999</v>
-      </c>
-      <c r="ED4">
         <v>1.3252999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1.2293000000000001</v>
+      </c>
       <c r="C5">
-        <v>1.2293000000000001</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="D5">
-        <v>1.2689999999999999</v>
+        <v>1.2603</v>
       </c>
       <c r="E5">
-        <v>1.2603</v>
+        <v>1.1932</v>
       </c>
       <c r="F5">
-        <v>1.1932</v>
+        <v>1.0941000000000001</v>
       </c>
       <c r="G5">
-        <v>1.0941000000000001</v>
+        <v>1.1620999999999999</v>
       </c>
       <c r="H5">
-        <v>1.1620999999999999</v>
+        <v>1.0783</v>
       </c>
       <c r="I5">
-        <v>1.0783</v>
+        <v>1.0952999999999999</v>
       </c>
       <c r="J5">
-        <v>1.0952999999999999</v>
+        <v>1.0697000000000001</v>
       </c>
       <c r="K5">
-        <v>1.0697000000000001</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="L5">
-        <v>1.0822000000000001</v>
+        <v>1.0556000000000001</v>
       </c>
       <c r="M5">
-        <v>1.0556000000000001</v>
+        <v>1.0482</v>
       </c>
       <c r="N5">
+        <v>1.0685</v>
+      </c>
+      <c r="O5">
+        <v>1.0516000000000001</v>
+      </c>
+      <c r="P5">
+        <v>1.0152000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>1.0158</v>
+      </c>
+      <c r="R5">
+        <v>1.0456000000000001</v>
+      </c>
+      <c r="S5">
+        <v>1.0645</v>
+      </c>
+      <c r="T5">
+        <v>1.0266999999999999</v>
+      </c>
+      <c r="U5">
+        <v>1.0654999999999999</v>
+      </c>
+      <c r="V5">
+        <v>1.0285</v>
+      </c>
+      <c r="W5">
+        <v>1.0192000000000001</v>
+      </c>
+      <c r="X5">
+        <v>1.0256000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>1.0015000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="AC5">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="AD5">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="AE5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AF5">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="AH5">
         <v>1.0482</v>
       </c>
-      <c r="O5">
-        <v>1.0685</v>
-      </c>
-      <c r="P5">
-        <v>1.0516000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>1.0152000000000001</v>
-      </c>
-      <c r="R5">
-        <v>1.0158</v>
-      </c>
-      <c r="S5">
-        <v>1.0456000000000001</v>
-      </c>
-      <c r="T5">
-        <v>1.0645</v>
-      </c>
-      <c r="U5">
-        <v>1.0266999999999999</v>
-      </c>
-      <c r="V5">
-        <v>1.0654999999999999</v>
-      </c>
-      <c r="W5">
-        <v>1.0285</v>
-      </c>
-      <c r="X5">
-        <v>1.0192000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>1.0256000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="AA5">
-        <v>1.0015000000000001</v>
-      </c>
-      <c r="AB5">
-        <v>0.97170000000000001</v>
-      </c>
-      <c r="AC5">
-        <v>0.96930000000000005</v>
-      </c>
-      <c r="AD5">
-        <v>0.94510000000000005</v>
-      </c>
-      <c r="AE5">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="AF5">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="AG5">
-        <v>0.95509999999999995</v>
-      </c>
-      <c r="AH5">
-        <v>0.97829999999999995</v>
-      </c>
       <c r="AI5">
-        <v>1.0482</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="AJ5">
-        <v>0.99670000000000003</v>
+        <v>1.0194000000000001</v>
       </c>
       <c r="AK5">
-        <v>1.0194000000000001</v>
+        <v>1.0185</v>
       </c>
       <c r="AL5">
-        <v>1.0185</v>
+        <v>1.0023</v>
       </c>
       <c r="AM5">
-        <v>1.0023</v>
+        <v>0.9899</v>
       </c>
       <c r="AN5">
-        <v>0.9899</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="AO5">
-        <v>0.99729999999999996</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.98709999999999998</v>
+        <v>1.0314000000000001</v>
       </c>
       <c r="AQ5">
-        <v>1.0314000000000001</v>
+        <v>1.0181</v>
       </c>
       <c r="AR5">
-        <v>1.0181</v>
+        <v>1.0025999999999999</v>
       </c>
       <c r="AS5">
-        <v>1.0025999999999999</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="AT5">
-        <v>0.98560000000000003</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="AU5">
-        <v>0.98370000000000002</v>
+        <v>1.0001</v>
       </c>
       <c r="AV5">
-        <v>1.0001</v>
+        <v>0.99309999999999998</v>
       </c>
       <c r="AW5">
-        <v>0.99309999999999998</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.99209999999999998</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="AY5">
-        <v>0.99750000000000005</v>
+        <v>1.0305</v>
       </c>
       <c r="AZ5">
-        <v>1.0305</v>
+        <v>1.0176000000000001</v>
       </c>
       <c r="BA5">
-        <v>1.0176000000000001</v>
+        <v>1.0073000000000001</v>
       </c>
       <c r="BB5">
-        <v>1.0073000000000001</v>
+        <v>1.0359</v>
       </c>
       <c r="BC5">
-        <v>1.0359</v>
+        <v>1.0510999999999999</v>
       </c>
       <c r="BD5">
-        <v>1.0510999999999999</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="BE5">
-        <v>1.0268999999999999</v>
+        <v>1.0536000000000001</v>
       </c>
       <c r="BF5">
-        <v>1.0536000000000001</v>
+        <v>1.0299</v>
       </c>
       <c r="BG5">
-        <v>1.0299</v>
+        <v>1.042</v>
       </c>
       <c r="BH5">
-        <v>1.042</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="BI5">
-        <v>1.0611999999999999</v>
+        <v>1.0636000000000001</v>
       </c>
       <c r="BJ5">
-        <v>1.0636000000000001</v>
+        <v>1.1134999999999999</v>
       </c>
       <c r="BK5">
-        <v>1.1134999999999999</v>
+        <v>1.1074999999999999</v>
       </c>
       <c r="BL5">
-        <v>1.1074999999999999</v>
+        <v>1.1051</v>
       </c>
       <c r="BM5">
-        <v>1.1051</v>
+        <v>1.0951</v>
       </c>
       <c r="BN5">
-        <v>1.0951</v>
+        <v>1.0842000000000001</v>
       </c>
       <c r="BO5">
-        <v>1.0842000000000001</v>
+        <v>1.0667</v>
       </c>
       <c r="BP5">
-        <v>1.0667</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="BQ5">
-        <v>1.0900000000000001</v>
+        <v>1.0871</v>
       </c>
       <c r="BR5">
-        <v>1.0871</v>
+        <v>1.1207</v>
       </c>
       <c r="BS5">
-        <v>1.1207</v>
+        <v>1.1272</v>
       </c>
       <c r="BT5">
-        <v>1.1272</v>
+        <v>1.143</v>
       </c>
       <c r="BU5">
-        <v>1.143</v>
+        <v>1.1607000000000001</v>
       </c>
       <c r="BV5">
-        <v>1.1607000000000001</v>
+        <v>1.2696000000000001</v>
       </c>
       <c r="BW5">
-        <v>1.2696000000000001</v>
+        <v>1.2501</v>
       </c>
       <c r="BX5">
-        <v>1.2501</v>
+        <v>1.2659</v>
       </c>
       <c r="BY5">
-        <v>1.2659</v>
+        <v>1.2096</v>
       </c>
       <c r="BZ5">
-        <v>1.2096</v>
+        <v>1.2444999999999999</v>
       </c>
       <c r="CA5">
-        <v>1.2444999999999999</v>
+        <v>1.2484</v>
       </c>
       <c r="CB5">
-        <v>1.2484</v>
+        <v>1.3081</v>
       </c>
       <c r="CC5">
-        <v>1.3081</v>
+        <v>1.3169</v>
       </c>
       <c r="CD5">
-        <v>1.3169</v>
+        <v>1.3347</v>
       </c>
       <c r="CE5">
-        <v>1.3347</v>
+        <v>1.3079000000000001</v>
       </c>
       <c r="CF5">
-        <v>1.3079000000000001</v>
+        <v>1.3358000000000001</v>
       </c>
       <c r="CG5">
-        <v>1.3358000000000001</v>
+        <v>1.3829</v>
       </c>
       <c r="CH5">
-        <v>1.3829</v>
+        <v>1.4025000000000001</v>
       </c>
       <c r="CI5">
-        <v>1.4025000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="CJ5">
-        <v>1.351</v>
+        <v>1.2978000000000001</v>
       </c>
       <c r="CK5">
-        <v>1.2978000000000001</v>
+        <v>1.254</v>
       </c>
       <c r="CL5">
-        <v>1.254</v>
+        <v>1.3107</v>
       </c>
       <c r="CM5">
-        <v>1.3107</v>
+        <v>1.2943</v>
       </c>
       <c r="CN5">
-        <v>1.2943</v>
+        <v>1.3045</v>
       </c>
       <c r="CO5">
-        <v>1.3045</v>
+        <v>1.3108</v>
       </c>
       <c r="CP5">
-        <v>1.3108</v>
+        <v>1.3123</v>
       </c>
       <c r="CQ5">
-        <v>1.3123</v>
+        <v>1.3415999999999999</v>
       </c>
       <c r="CR5">
-        <v>1.3415999999999999</v>
+        <v>1.3428</v>
       </c>
       <c r="CS5">
-        <v>1.3428</v>
+        <v>1.3436999999999999</v>
       </c>
       <c r="CT5">
-        <v>1.3436999999999999</v>
+        <v>1.302</v>
       </c>
       <c r="CU5">
-        <v>1.302</v>
+        <v>1.3291999999999999</v>
       </c>
       <c r="CV5">
-        <v>1.3291999999999999</v>
+        <v>1.3295999999999999</v>
       </c>
       <c r="CW5">
-        <v>1.3295999999999999</v>
+        <v>1.3655999999999999</v>
       </c>
       <c r="CX5">
-        <v>1.3655999999999999</v>
+        <v>1.3508</v>
       </c>
       <c r="CY5">
-        <v>1.3508</v>
+        <v>1.2965</v>
       </c>
       <c r="CZ5">
-        <v>1.2965</v>
+        <v>1.2452000000000001</v>
       </c>
       <c r="DA5">
-        <v>1.2452000000000001</v>
+        <v>1.2498</v>
       </c>
       <c r="DB5">
-        <v>1.2498</v>
+        <v>1.2477</v>
       </c>
       <c r="DC5">
-        <v>1.2477</v>
+        <v>1.2896000000000001</v>
       </c>
       <c r="DD5">
-        <v>1.2896000000000001</v>
+        <v>1.2901</v>
       </c>
       <c r="DE5">
-        <v>1.2901</v>
+        <v>1.2533000000000001</v>
       </c>
       <c r="DF5">
-        <v>1.2533000000000001</v>
+        <v>1.2299</v>
       </c>
       <c r="DG5">
-        <v>1.2299</v>
+        <v>1.2833000000000001</v>
       </c>
       <c r="DH5">
-        <v>1.2833000000000001</v>
+        <v>1.2892999999999999</v>
       </c>
       <c r="DI5">
-        <v>1.2892999999999999</v>
+        <v>1.2828999999999999</v>
       </c>
       <c r="DJ5">
-        <v>1.2828999999999999</v>
+        <v>1.3025</v>
       </c>
       <c r="DK5">
-        <v>1.3025</v>
+        <v>1.3158000000000001</v>
       </c>
       <c r="DL5">
-        <v>1.3158000000000001</v>
+        <v>1.2994000000000001</v>
       </c>
       <c r="DM5">
-        <v>1.2994000000000001</v>
+        <v>1.3043</v>
       </c>
       <c r="DN5">
-        <v>1.3043</v>
+        <v>1.2926</v>
       </c>
       <c r="DO5">
-        <v>1.2926</v>
+        <v>1.3168</v>
       </c>
       <c r="DP5">
-        <v>1.3168</v>
+        <v>1.3289</v>
       </c>
       <c r="DQ5">
-        <v>1.3289</v>
+        <v>1.3638999999999999</v>
       </c>
       <c r="DR5">
-        <v>1.3638999999999999</v>
+        <v>1.3129</v>
       </c>
       <c r="DS5">
-        <v>1.3129</v>
+        <v>1.3145</v>
       </c>
       <c r="DT5">
-        <v>1.3145</v>
+        <v>1.3353999999999999</v>
       </c>
       <c r="DU5">
-        <v>1.3353999999999999</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="DV5">
-        <v>1.3420000000000001</v>
+        <v>1.3514999999999999</v>
       </c>
       <c r="DW5">
-        <v>1.3514999999999999</v>
+        <v>1.3084</v>
       </c>
       <c r="DX5">
-        <v>1.3084</v>
+        <v>1.3183</v>
       </c>
       <c r="DY5">
-        <v>1.3183</v>
+        <v>1.3327</v>
       </c>
       <c r="DZ5">
-        <v>1.3327</v>
+        <v>1.3234999999999999</v>
       </c>
       <c r="EA5">
-        <v>1.3234999999999999</v>
+        <v>1.3164</v>
       </c>
       <c r="EB5">
-        <v>1.3164</v>
+        <v>1.3281000000000001</v>
       </c>
       <c r="EC5">
-        <v>1.3281000000000001</v>
-      </c>
-      <c r="ED5">
         <v>1.2971999999999999</v>
       </c>
     </row>

--- a/closing exchange rates.xlsx
+++ b/closing exchange rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE13E12-C050-4F68-84C8-8724F09F3EEB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4385CE-09EA-4E10-AD25-6E67A3A19F76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -577,10 +577,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,19 +879,20 @@
   <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3157,5 +3154,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/closing exchange rates.xlsx
+++ b/closing exchange rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4385CE-09EA-4E10-AD25-6E67A3A19F76}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26703E3-61A2-44B6-98EB-B44EBABAAA2E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="mmyy"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +523,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -577,6 +580,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/closing exchange rates.xlsx
+++ b/closing exchange rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4a3894a50a4593/Documents/GitHub/final-project-tomh237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26703E3-61A2-44B6-98EB-B44EBABAAA2E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{9B06A7B0-D68C-4B78-9399-AF33968C71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11113CB8-4839-4F52-A88D-9D8DD4E8BED2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mmyy"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +520,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
